--- a/pITD-pion/expdata/2001.xlsx
+++ b/pITD-pion/expdata/2001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320906E7-D177-8440-84AF-61A15F7E5A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E7AE6-C684-FC4E-96AA-4EAF09E0E34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="6820" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="4900" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2002" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
-    <t>mpi [MeV]</t>
-  </si>
-  <si>
-    <t>a [fm]</t>
-  </si>
-  <si>
     <t>Nf</t>
   </si>
   <si>
@@ -38,12 +32,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>p [2pi/L]</t>
-  </si>
-  <si>
-    <t>z [a]</t>
   </si>
   <si>
     <t>z</t>
@@ -128,6 +116,18 @@
   </si>
   <si>
     <t>2+1</t>
+  </si>
+  <si>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ZoA</t>
   </si>
 </sst>
 </file>
@@ -971,116 +971,116 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>0.127</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -1200,7 +1200,7 @@
         <v>0.127</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1309,7 +1309,7 @@
         <v>0.127</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1418,7 +1418,7 @@
         <v>0.127</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1527,7 +1527,7 @@
         <v>0.127</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -1636,7 +1636,7 @@
         <v>0.127</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -1745,7 +1745,7 @@
         <v>0.127</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1854,7 +1854,7 @@
         <v>0.127</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>32</v>
@@ -1963,7 +1963,7 @@
         <v>0.127</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>32</v>
@@ -2072,7 +2072,7 @@
         <v>0.127</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>32</v>
@@ -2181,7 +2181,7 @@
         <v>0.127</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>32</v>
@@ -2290,7 +2290,7 @@
         <v>0.127</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>32</v>
@@ -2399,7 +2399,7 @@
         <v>0.127</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>32</v>
@@ -2508,7 +2508,7 @@
         <v>0.127</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>32</v>
@@ -2617,7 +2617,7 @@
         <v>0.127</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>32</v>
@@ -2726,7 +2726,7 @@
         <v>0.127</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>32</v>
@@ -2835,7 +2835,7 @@
         <v>0.127</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -2944,7 +2944,7 @@
         <v>0.127</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>32</v>
@@ -3053,7 +3053,7 @@
         <v>0.127</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -3162,7 +3162,7 @@
         <v>0.127</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>32</v>
@@ -3271,7 +3271,7 @@
         <v>0.127</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -3380,7 +3380,7 @@
         <v>0.127</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>32</v>
@@ -3489,7 +3489,7 @@
         <v>0.127</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>32</v>
@@ -3598,7 +3598,7 @@
         <v>0.127</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>32</v>

--- a/pITD-pion/expdata/2001.xlsx
+++ b/pITD-pion/expdata/2001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E7AE6-C684-FC4E-96AA-4EAF09E0E34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0562D633-1EC7-AD4F-AFC2-39133396DF78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="4900" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="7380" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2002" sheetId="1" r:id="rId1"/>
@@ -611,8 +611,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -970,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,77 +1120,77 @@
       <c r="K2">
         <v>4.1848000000000003E-2</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="W2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="X2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Y2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Z2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AA2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AB2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AC2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AD2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AE2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AF2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AG2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AH2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AI2">
-        <v>1.9999999999999999E-6</v>
+      <c r="L2" s="1">
+        <v>2.9695610000000002E-7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3.2901390000000002E-7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>6.8778959999999997E-7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6.3347939999999997E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>6.769849E-7</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1.3318389999999999E-6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>3.0506860000000002E-7</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1.0757820000000001E-6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.88332E-6</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4.9314779999999995E-7</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1.4953440000000001E-6</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2.0935930000000002E-6</v>
+      </c>
+      <c r="X2" s="1">
+        <v>7.1365079999999998E-7</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1.8742030000000001E-6</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1.9305980000000001E-6</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>9.2181869999999997E-7</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2.249605E-6</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1.6390290000000001E-6</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>9.9177289999999992E-7</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1.9810650000000001E-6</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1.253685E-6</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1.2853340000000001E-6</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1.983312E-6</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1.760043E-6</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -1228,77 +1229,77 @@
       <c r="K3">
         <v>9.1026999999999997E-2</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N3">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="O3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P3">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q3">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="R3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S3">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="T3">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="U3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="V3">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="W3">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="X3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Y3">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="Z3">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="AA3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AB3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC3">
-        <v>2.3E-5</v>
-      </c>
-      <c r="AD3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AE3">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AF3">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AG3">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AH3">
-        <v>1.4E-5</v>
-      </c>
-      <c r="AI3">
-        <v>1.8E-5</v>
+      <c r="L3" s="1">
+        <v>3.2901390000000002E-7</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.5425090000000001E-6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6.1920460000000002E-6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.8435200000000001E-7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3.0852239999999999E-6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.2893540000000001E-5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5.9645520000000004E-7</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4.7788949999999998E-6</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.8520199999999999E-5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>9.6009450000000009E-7</v>
+      </c>
+      <c r="V3" s="1">
+        <v>6.546465E-6</v>
+      </c>
+      <c r="W3" s="1">
+        <v>2.238021E-5</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1.3636209999999999E-6</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>8.2974400000000006E-6</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2.378713E-5</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1.6783249999999999E-6</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1.0060780000000001E-5</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2.2859379999999999E-5</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2.252038E-6</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1.24694E-5</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2.0933920000000001E-5</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>3.4080100000000001E-6</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1.385107E-5</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1.7749339999999999E-5</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -1337,77 +1338,77 @@
       <c r="K4">
         <v>0.13351499999999999</v>
       </c>
-      <c r="L4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M4">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="N4">
-        <v>5.1E-5</v>
-      </c>
-      <c r="O4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P4">
-        <v>1.2E-5</v>
-      </c>
-      <c r="Q4">
-        <v>1.05E-4</v>
-      </c>
-      <c r="R4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S4">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="T4">
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="U4">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="V4">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="W4">
-        <v>1.85E-4</v>
-      </c>
-      <c r="X4">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Y4">
-        <v>3.4E-5</v>
-      </c>
-      <c r="Z4">
-        <v>2.02E-4</v>
-      </c>
-      <c r="AA4">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AB4">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="AC4">
-        <v>2.05E-4</v>
-      </c>
-      <c r="AD4">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AE4">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="AF4">
-        <v>2.04E-4</v>
-      </c>
-      <c r="AG4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AH4">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="AI4">
-        <v>1.9799999999999999E-4</v>
+      <c r="L4" s="1">
+        <v>6.8778959999999997E-7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6.1920460000000002E-6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.1196529999999999E-5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1.43074E-6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.220058E-5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.052954E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.283751E-6</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.9050850000000001E-5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.5100460000000001E-4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2.0010800000000001E-6</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2.656484E-5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.849229E-4</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3.0956960000000002E-6</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3.437942E-5</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.0235960000000001E-4</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3.8036249999999999E-6</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4.2589039999999998E-5</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2.0489060000000001E-4</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>5.2421409999999998E-6</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>6.2010050000000001E-5</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2.0405360000000001E-4</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1.0131159999999999E-5</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>7.1894860000000006E-5</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1.975092E-4</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -1446,77 +1447,77 @@
       <c r="K5">
         <v>8.7428000000000006E-2</v>
       </c>
-      <c r="L5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="R5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="U5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="V5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W5">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="X5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Y5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Z5">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AA5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AB5">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AC5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AD5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AE5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AF5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AG5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AH5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AI5">
-        <v>3.9999999999999998E-6</v>
+      <c r="L5" s="1">
+        <v>6.3347939999999997E-7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6.8435200000000001E-7</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.43074E-6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.3786339999999999E-6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.420815E-6</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.8261910000000001E-6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>6.6633139999999995E-7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2.2801660000000001E-6</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4.0943659999999996E-6</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.079424E-6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3.1947629999999999E-6</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4.6841260000000001E-6</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1.574357E-6</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>4.0280049999999997E-6</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4.5118510000000001E-6</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2.0535919999999999E-6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4.8464220000000001E-6</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3.9979240000000001E-6</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2.210982E-6</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>4.1596629999999998E-6</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>3.2754419999999999E-6</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>2.895935E-6</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>4.2548819999999996E-6</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>4.4789480000000001E-6</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -1555,77 +1556,77 @@
       <c r="K6">
         <v>0.184781</v>
       </c>
-      <c r="L6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M6">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="N6">
-        <v>1.2E-5</v>
-      </c>
-      <c r="O6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P6">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="Q6">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="R6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T6">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="U6">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="V6">
-        <v>1.4E-5</v>
-      </c>
-      <c r="W6">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="X6">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Y6">
-        <v>1.7E-5</v>
-      </c>
-      <c r="Z6">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="AA6">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AB6">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AC6">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="AD6">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AE6">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="AF6">
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="AG6">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AH6">
-        <v>2.9E-5</v>
-      </c>
-      <c r="AI6">
-        <v>3.8999999999999999E-5</v>
+      <c r="L6" s="1">
+        <v>6.769849E-7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.0852239999999999E-6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.220058E-5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.420815E-6</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6.274377E-6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.5607219999999999E-5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.242455E-6</v>
+      </c>
+      <c r="S6" s="1">
+        <v>9.797844E-6</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3.7064850000000001E-5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>2.0138819999999998E-6</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1.352229E-5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4.5094369999999998E-5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2.8673769999999999E-6</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.7256639999999999E-5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4.8326189999999997E-5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3.5319820000000002E-6</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2.1025519999999999E-5</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>4.7048729999999998E-5</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>4.7175969999999997E-6</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2.582959E-5</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>4.402947E-5</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>7.0737569999999998E-6</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>2.8848520000000001E-5</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>3.8627449999999999E-5</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -1664,77 +1665,77 @@
       <c r="K7">
         <v>0.26721899999999998</v>
       </c>
-      <c r="L7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M7">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="N7">
-        <v>1.05E-4</v>
-      </c>
-      <c r="O7">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P7">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="Q7">
-        <v>2.1900000000000001E-4</v>
-      </c>
-      <c r="R7">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="S7">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="T7">
-        <v>3.1700000000000001E-4</v>
-      </c>
-      <c r="U7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="V7">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="W7">
-        <v>3.9199999999999999E-4</v>
-      </c>
-      <c r="X7">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="Y7">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="Z7">
-        <v>4.3199999999999998E-4</v>
-      </c>
-      <c r="AA7">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AB7">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="AC7">
-        <v>4.4000000000000002E-4</v>
-      </c>
-      <c r="AD7">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AE7">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="AF7">
-        <v>4.4099999999999999E-4</v>
-      </c>
-      <c r="AG7">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AH7">
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="AI7">
-        <v>4.2900000000000002E-4</v>
+      <c r="L7" s="1">
+        <v>1.3318389999999999E-6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.2893540000000001E-5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.052954E-4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.8261910000000001E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.5607219999999999E-5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.191824E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.7096720000000002E-6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.0231349999999999E-5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.173661E-4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4.2076140000000001E-6</v>
+      </c>
+      <c r="V7" s="1">
+        <v>5.6328200000000001E-5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3.9192259999999999E-4</v>
+      </c>
+      <c r="X7" s="1">
+        <v>6.4294730000000003E-6</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>7.3008240000000006E-5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4.320932E-4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>7.7818329999999992E-6</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>9.011345E-5</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>4.4016189999999998E-4</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1.06724E-5</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1.308188E-4</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>4.4057619999999999E-4</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>2.0612919999999998E-5</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1.5132049999999999E-4</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>4.2869579999999999E-4</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
@@ -1773,77 +1774,77 @@
       <c r="K8">
         <v>0.144371</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="R8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T8">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="U8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="V8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W8">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="X8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Y8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Z8">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AA8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AB8">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AC8">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AD8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AE8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AF8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AG8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AH8">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AI8">
-        <v>1.9999999999999999E-6</v>
+      <c r="L8" s="1">
+        <v>3.0506860000000002E-7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5.9645520000000004E-7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.283751E-6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6.6633139999999995E-7</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.242455E-6</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2.7096720000000002E-6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>6.894286E-7</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.9717539999999999E-6</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3.976532E-6</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.0034959999999999E-6</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2.7000520000000001E-6</v>
+      </c>
+      <c r="W8" s="1">
+        <v>4.7184730000000001E-6</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.34108E-6</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>3.3213709999999999E-6</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4.7768060000000003E-6</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1.6792369999999999E-6</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>3.7503879999999998E-6</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>4.0236809999999998E-6</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1.9491289999999999E-6</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>3.3960319999999998E-6</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2.8460349999999998E-6</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>2.5290299999999998E-6</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>3.402491E-6</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>2.177973E-6</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -1882,77 +1883,77 @@
       <c r="K9">
         <v>0.27907799999999999</v>
       </c>
-      <c r="L9">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M9">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="N9">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="O9">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Q9">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="R9">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="S9">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="T9">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="U9">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="V9">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="W9">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="X9">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="Y9">
-        <v>2.8E-5</v>
-      </c>
-      <c r="Z9">
-        <v>7.8999999999999996E-5</v>
-      </c>
-      <c r="AA9">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="AB9">
-        <v>3.4E-5</v>
-      </c>
-      <c r="AC9">
-        <v>7.8999999999999996E-5</v>
-      </c>
-      <c r="AD9">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AE9">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="AF9">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="AG9">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AH9">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="AI9">
-        <v>6.8999999999999997E-5</v>
+      <c r="L9" s="1">
+        <v>1.0757820000000001E-6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.7788949999999998E-6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.9050850000000001E-5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.2801660000000001E-6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>9.797844E-6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4.0231349999999999E-5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.9717539999999999E-6</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.5536839999999999E-5</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5.9009679999999997E-5</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3.2254469999999999E-6</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2.1741359999999999E-5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>7.2854439999999994E-5</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4.6485469999999999E-6</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2.809338E-5</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>7.9490220000000001E-5</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5.766395E-6</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3.445827E-5</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>7.9045260000000004E-5</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>7.635054E-6</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>4.2397449999999998E-5</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>7.5695290000000006E-5</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1.141909E-5</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>4.7227369999999999E-5</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>6.8631899999999996E-5</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
@@ -1991,77 +1992,77 @@
       <c r="K10">
         <v>0.38943899999999998</v>
       </c>
-      <c r="L10">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M10">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="N10">
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="O10">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P10">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="Q10">
-        <v>3.1700000000000001E-4</v>
-      </c>
-      <c r="R10">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="S10">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="T10">
-        <v>4.6700000000000002E-4</v>
-      </c>
-      <c r="U10">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="V10">
-        <v>8.3999999999999995E-5</v>
-      </c>
-      <c r="W10">
-        <v>5.8699999999999996E-4</v>
-      </c>
-      <c r="X10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Y10">
-        <v>1.0900000000000001E-4</v>
-      </c>
-      <c r="Z10">
-        <v>6.5799999999999995E-4</v>
-      </c>
-      <c r="AA10">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AB10">
-        <v>1.35E-4</v>
-      </c>
-      <c r="AC10">
-        <v>6.8099999999999996E-4</v>
-      </c>
-      <c r="AD10">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AE10">
-        <v>1.9699999999999999E-4</v>
-      </c>
-      <c r="AF10">
-        <v>6.9099999999999999E-4</v>
-      </c>
-      <c r="AG10">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="AH10">
-        <v>2.2800000000000001E-4</v>
-      </c>
-      <c r="AI10">
-        <v>6.8400000000000004E-4</v>
+      <c r="L10" s="1">
+        <v>1.88332E-6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.8520199999999999E-5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.5100460000000001E-4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4.0943659999999996E-6</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3.7064850000000001E-5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.173661E-4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3.976532E-6</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5.9009679999999997E-5</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4.6701549999999999E-4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>6.2349509999999997E-6</v>
+      </c>
+      <c r="V10" s="1">
+        <v>8.3655260000000002E-5</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5.8697380000000002E-4</v>
+      </c>
+      <c r="X10" s="1">
+        <v>9.605363E-6</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1.0946709999999999E-4</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>6.582456E-4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1.1657249999999999E-5</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1.3548600000000001E-4</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>6.812303E-4</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1.6068719999999999E-5</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1.96682E-4</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>6.9138589999999996E-4</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>3.0854790000000001E-5</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>2.2792609999999999E-4</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>6.8351939999999997E-4</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -2100,77 +2101,77 @@
       <c r="K11">
         <v>0.19647200000000001</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N11">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="O11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P11">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q11">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="R11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="T11">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="U11">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="V11">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="W11">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="X11">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Y11">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="Z11">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AA11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="AB11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AC11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AD11">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AE11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AF11">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="AG11">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AH11">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AI11">
-        <v>6.9999999999999999E-6</v>
+      <c r="L11" s="1">
+        <v>4.9314779999999995E-7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>9.6009450000000009E-7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2.0010800000000001E-6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.079424E-6</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.0138819999999998E-6</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4.2076140000000001E-6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.0034959999999999E-6</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3.2254469999999999E-6</v>
+      </c>
+      <c r="T11" s="1">
+        <v>6.2349509999999997E-6</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.634271E-6</v>
+      </c>
+      <c r="V11" s="1">
+        <v>4.5439440000000002E-6</v>
+      </c>
+      <c r="W11" s="1">
+        <v>7.6156850000000004E-6</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2.243384E-6</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>5.7428929999999997E-6</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>8.0388279999999999E-6</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>2.8730080000000001E-6</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>6.7134960000000001E-6</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>7.3700989999999997E-6</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>3.5233530000000002E-6</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>6.6479159999999999E-6</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>6.200485E-6</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>4.6473119999999999E-6</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>7.0867630000000001E-6</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>6.6892850000000003E-6</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -2209,77 +2210,77 @@
       <c r="K12">
         <v>0.36844300000000002</v>
       </c>
-      <c r="L12">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M12">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="N12">
-        <v>2.6999999999999999E-5</v>
-      </c>
-      <c r="O12">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P12">
-        <v>1.4E-5</v>
-      </c>
-      <c r="Q12">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="R12">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="S12">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="T12">
-        <v>8.3999999999999995E-5</v>
-      </c>
-      <c r="U12">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="V12">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="W12">
-        <v>1.06E-4</v>
-      </c>
-      <c r="X12">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Y12">
-        <v>4.1E-5</v>
-      </c>
-      <c r="Z12">
-        <v>1.18E-4</v>
-      </c>
-      <c r="AA12">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AB12">
-        <v>5.1E-5</v>
-      </c>
-      <c r="AC12">
-        <v>1.22E-4</v>
-      </c>
-      <c r="AD12">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AE12">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="AF12">
-        <v>1.22E-4</v>
-      </c>
-      <c r="AG12">
-        <v>1.7E-5</v>
-      </c>
-      <c r="AH12">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="AI12">
-        <v>1.18E-4</v>
+      <c r="L12" s="1">
+        <v>1.4953440000000001E-6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6.546465E-6</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.656484E-5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.1947629999999999E-6</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.352229E-5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5.6328200000000001E-5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2.7000520000000001E-6</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2.1741359999999999E-5</v>
+      </c>
+      <c r="T12" s="1">
+        <v>8.3655260000000002E-5</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4.5439440000000002E-6</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3.1148390000000001E-5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.0555759999999999E-4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>6.7164590000000003E-6</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4.1182320000000002E-5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1.184647E-4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>8.4813760000000008E-6</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>5.1395720000000001E-5</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1.219134E-4</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1.1293279999999999E-5</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>6.4384379999999998E-5</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1.215641E-4</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1.6843839999999999E-5</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>7.2390210000000004E-5</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1.18316E-4</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -2318,77 +2319,77 @@
       <c r="K13">
         <v>0.48841200000000001</v>
       </c>
-      <c r="L13">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M13">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="N13">
-        <v>1.85E-4</v>
-      </c>
-      <c r="O13">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="P13">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="Q13">
-        <v>3.9199999999999999E-4</v>
-      </c>
-      <c r="R13">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="S13">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="T13">
-        <v>5.8699999999999996E-4</v>
-      </c>
-      <c r="U13">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="V13">
-        <v>1.06E-4</v>
-      </c>
-      <c r="W13">
-        <v>7.5699999999999997E-4</v>
-      </c>
-      <c r="X13">
-        <v>1.2E-5</v>
-      </c>
-      <c r="Y13">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="Z13">
-        <v>8.7200000000000005E-4</v>
-      </c>
-      <c r="AA13">
-        <v>1.5E-5</v>
-      </c>
-      <c r="AB13">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="AC13">
-        <v>9.2800000000000001E-4</v>
-      </c>
-      <c r="AD13">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AE13">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="AF13">
-        <v>9.6500000000000004E-4</v>
-      </c>
-      <c r="AG13">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="AH13">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="AI13">
-        <v>9.8499999999999998E-4</v>
+      <c r="L13" s="1">
+        <v>2.0935930000000002E-6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.238021E-5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.849229E-4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4.6841260000000001E-6</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.5094369999999998E-5</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3.9192259999999999E-4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4.7184730000000001E-6</v>
+      </c>
+      <c r="S13" s="1">
+        <v>7.2854439999999994E-5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5.8697380000000002E-4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>7.6156850000000004E-6</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.0555759999999999E-4</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7.5673349999999995E-4</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1.204565E-5</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1.4091749999999999E-4</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>8.7248049999999998E-4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1.4792859999999999E-5</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.7655230000000001E-4</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>9.2809130000000002E-4</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>2.0680620000000001E-5</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2.600352E-4</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>9.6536270000000001E-4</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>3.9818340000000001E-5</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>3.0501319999999999E-4</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>9.8547739999999993E-4</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -2427,77 +2428,77 @@
       <c r="K14">
         <v>0.24965999999999999</v>
       </c>
-      <c r="L14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N14">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="O14">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P14">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q14">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="R14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S14">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="T14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="U14">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="V14">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="W14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="X14">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Y14">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="Z14">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AA14">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="AB14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AC14">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AD14">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="AE14">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AF14">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AG14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AH14">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AI14">
-        <v>1.5999999999999999E-5</v>
+      <c r="L14" s="1">
+        <v>7.1365079999999998E-7</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.3636209999999999E-6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3.0956960000000002E-6</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.574357E-6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.8673769999999999E-6</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>6.4294730000000003E-6</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1.34108E-6</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4.6485469999999999E-6</v>
+      </c>
+      <c r="T14" s="1">
+        <v>9.605363E-6</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2.243384E-6</v>
+      </c>
+      <c r="V14" s="1">
+        <v>6.7164590000000003E-6</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1.204565E-5</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3.369595E-6</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>8.8681920000000007E-6</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1.338973E-5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>4.5418950000000002E-6</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1.093106E-5</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1.3431369999999999E-5</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>5.8864320000000001E-6</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1.158463E-5</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1.295172E-5</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>8.0852849999999993E-6</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1.313931E-5</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>1.6070469999999999E-5</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -2536,77 +2537,77 @@
       <c r="K15">
         <v>0.44689099999999998</v>
       </c>
-      <c r="L15">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M15">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="N15">
-        <v>3.4E-5</v>
-      </c>
-      <c r="O15">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P15">
-        <v>1.7E-5</v>
-      </c>
-      <c r="Q15">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="R15">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="S15">
-        <v>2.8E-5</v>
-      </c>
-      <c r="T15">
-        <v>1.0900000000000001E-4</v>
-      </c>
-      <c r="U15">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="V15">
-        <v>4.1E-5</v>
-      </c>
-      <c r="W15">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="X15">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="Y15">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="Z15">
-        <v>1.64E-4</v>
-      </c>
-      <c r="AA15">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AB15">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="AC15">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="AD15">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AE15">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="AF15">
-        <v>1.8599999999999999E-4</v>
-      </c>
-      <c r="AG15">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="AH15">
-        <v>1.1E-4</v>
-      </c>
-      <c r="AI15">
-        <v>1.9100000000000001E-4</v>
+      <c r="L15" s="1">
+        <v>1.8742030000000001E-6</v>
+      </c>
+      <c r="M15" s="1">
+        <v>8.2974400000000006E-6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3.437942E-5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4.0280049999999997E-6</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.7256639999999999E-5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>7.3008240000000006E-5</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3.3213709999999999E-6</v>
+      </c>
+      <c r="S15" s="1">
+        <v>2.809338E-5</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1.0946709999999999E-4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>5.7428929999999997E-6</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4.1182320000000002E-5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1.4091749999999999E-4</v>
+      </c>
+      <c r="X15" s="1">
+        <v>8.8681920000000007E-6</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>5.6411459999999997E-5</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1.6396600000000001E-4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1.165663E-5</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>7.3032899999999997E-5</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1.770753E-4</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1.604166E-5</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>9.4897100000000003E-5</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>1.8593470000000001E-4</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>2.4496920000000001E-5</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1.098884E-4</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>1.9094739999999999E-4</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
@@ -2645,77 +2646,77 @@
       <c r="K16">
         <v>0.54958399999999996</v>
       </c>
-      <c r="L16">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M16">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="N16">
-        <v>2.02E-4</v>
-      </c>
-      <c r="O16">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="P16">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="Q16">
-        <v>4.3199999999999998E-4</v>
-      </c>
-      <c r="R16">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="S16">
-        <v>7.8999999999999996E-5</v>
-      </c>
-      <c r="T16">
-        <v>6.5799999999999995E-4</v>
-      </c>
-      <c r="U16">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="V16">
-        <v>1.18E-4</v>
-      </c>
-      <c r="W16">
-        <v>8.7200000000000005E-4</v>
-      </c>
-      <c r="X16">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="Y16">
-        <v>1.64E-4</v>
-      </c>
-      <c r="Z16">
-        <v>1.0480000000000001E-3</v>
-      </c>
-      <c r="AA16">
-        <v>1.7E-5</v>
-      </c>
-      <c r="AB16">
-        <v>2.12E-4</v>
-      </c>
-      <c r="AC16">
-        <v>1.1670000000000001E-3</v>
-      </c>
-      <c r="AD16">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="AE16">
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="AF16">
-        <v>1.2639999999999999E-3</v>
-      </c>
-      <c r="AG16">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="AH16">
-        <v>3.8299999999999999E-4</v>
-      </c>
-      <c r="AI16">
-        <v>1.3359999999999999E-3</v>
+      <c r="L16" s="1">
+        <v>1.9305980000000001E-6</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.378713E-5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.0235960000000001E-4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>4.5118510000000001E-6</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4.8326189999999997E-5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>4.320932E-4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4.7768060000000003E-6</v>
+      </c>
+      <c r="S16" s="1">
+        <v>7.9490220000000001E-5</v>
+      </c>
+      <c r="T16" s="1">
+        <v>6.582456E-4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>8.0388279999999999E-6</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1.184647E-4</v>
+      </c>
+      <c r="W16" s="1">
+        <v>8.7248049999999998E-4</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1.338973E-5</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1.6396600000000001E-4</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.047723E-3</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1.6997459999999998E-5</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>2.1163519999999999E-4</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1.1672029999999999E-3</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>2.456094E-5</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>3.1975580000000002E-4</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>1.264156E-3</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>4.7816260000000002E-5</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>3.8315929999999999E-4</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>1.3355190000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -2754,77 +2755,77 @@
       <c r="K17">
         <v>0.30181400000000003</v>
       </c>
-      <c r="L17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M17">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N17">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="O17">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P17">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Q17">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="R17">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="S17">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="T17">
-        <v>1.2E-5</v>
-      </c>
-      <c r="U17">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="V17">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="W17">
-        <v>1.5E-5</v>
-      </c>
-      <c r="X17">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="Y17">
-        <v>1.2E-5</v>
-      </c>
-      <c r="Z17">
-        <v>1.7E-5</v>
-      </c>
-      <c r="AA17">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AB17">
-        <v>1.5E-5</v>
-      </c>
-      <c r="AC17">
-        <v>1.8E-5</v>
-      </c>
-      <c r="AD17">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="AE17">
-        <v>1.7E-5</v>
-      </c>
-      <c r="AF17">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AG17">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AH17">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AI17">
-        <v>2.4000000000000001E-5</v>
+      <c r="L17" s="1">
+        <v>9.2181869999999997E-7</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.6783249999999999E-6</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3.8036249999999999E-6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.0535919999999999E-6</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3.5319820000000002E-6</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>7.7818329999999992E-6</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1.6792369999999999E-6</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5.766395E-6</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.1657249999999999E-5</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2.8730080000000001E-6</v>
+      </c>
+      <c r="V17" s="1">
+        <v>8.4813760000000008E-6</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1.4792859999999999E-5</v>
+      </c>
+      <c r="X17" s="1">
+        <v>4.5418950000000002E-6</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1.165663E-5</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.6997459999999998E-5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>6.5678220000000002E-6</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1.5353E-5</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1.8146929999999999E-5</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>9.1270810000000008E-6</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1.7354210000000001E-5</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1.8980979999999999E-5</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1.3281589999999999E-5</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>2.1230739999999999E-5</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>2.44307E-5</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2863,77 +2864,77 @@
       <c r="K18">
         <v>0.509046</v>
       </c>
-      <c r="L18">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M18">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N18">
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="O18">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="P18">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="Q18">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="R18">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="S18">
-        <v>3.4E-5</v>
-      </c>
-      <c r="T18">
-        <v>1.35E-4</v>
-      </c>
-      <c r="U18">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="V18">
-        <v>5.1E-5</v>
-      </c>
-      <c r="W18">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="X18">
-        <v>1.1E-5</v>
-      </c>
-      <c r="Y18">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="Z18">
-        <v>2.12E-4</v>
-      </c>
-      <c r="AA18">
-        <v>1.5E-5</v>
-      </c>
-      <c r="AB18">
-        <v>1E-4</v>
-      </c>
-      <c r="AC18">
-        <v>2.42E-4</v>
-      </c>
-      <c r="AD18">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="AE18">
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="AF18">
-        <v>2.7300000000000002E-4</v>
-      </c>
-      <c r="AG18">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="AH18">
-        <v>1.73E-4</v>
-      </c>
-      <c r="AI18">
-        <v>3.01E-4</v>
+      <c r="L18" s="1">
+        <v>2.249605E-6</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.0060780000000001E-5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4.2589039999999998E-5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4.8464220000000001E-6</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.1025519999999999E-5</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>9.011345E-5</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3.7503879999999998E-6</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3.445827E-5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.3548600000000001E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>6.7134960000000001E-6</v>
+      </c>
+      <c r="V18" s="1">
+        <v>5.1395720000000001E-5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1.7655230000000001E-4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.093106E-5</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>7.3032899999999997E-5</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2.1163519999999999E-4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1.5353E-5</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1.0028830000000001E-4</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2.4214040000000001E-4</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>2.2468489999999999E-5</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1.396131E-4</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>2.7347109999999999E-4</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>3.6487479999999998E-5</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1.7265889999999999E-4</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>3.0135220000000002E-4</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2972,77 +2973,77 @@
       <c r="K19">
         <v>0.56251300000000004</v>
       </c>
-      <c r="L19">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M19">
-        <v>2.3E-5</v>
-      </c>
-      <c r="N19">
-        <v>2.05E-4</v>
-      </c>
-      <c r="O19">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P19">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="Q19">
-        <v>4.4000000000000002E-4</v>
-      </c>
-      <c r="R19">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="S19">
-        <v>7.8999999999999996E-5</v>
-      </c>
-      <c r="T19">
-        <v>6.8099999999999996E-4</v>
-      </c>
-      <c r="U19">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="V19">
-        <v>1.22E-4</v>
-      </c>
-      <c r="W19">
-        <v>9.2800000000000001E-4</v>
-      </c>
-      <c r="X19">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="Y19">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="Z19">
-        <v>1.1670000000000001E-3</v>
-      </c>
-      <c r="AA19">
-        <v>1.8E-5</v>
-      </c>
-      <c r="AB19">
-        <v>2.42E-4</v>
-      </c>
-      <c r="AC19">
-        <v>1.3940000000000001E-3</v>
-      </c>
-      <c r="AD19">
-        <v>2.8E-5</v>
-      </c>
-      <c r="AE19">
-        <v>3.86E-4</v>
-      </c>
-      <c r="AF19">
-        <v>1.6280000000000001E-3</v>
-      </c>
-      <c r="AG19">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="AH19">
-        <v>4.86E-4</v>
-      </c>
-      <c r="AI19">
-        <v>1.846E-3</v>
+      <c r="L19" s="1">
+        <v>1.6390290000000001E-6</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.2859379999999999E-5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2.0489060000000001E-4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3.9979240000000001E-6</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.7048729999999998E-5</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.4016189999999998E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4.0236809999999998E-6</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7.9045260000000004E-5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>6.812303E-4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>7.3700989999999997E-6</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.219134E-4</v>
+      </c>
+      <c r="W19" s="1">
+        <v>9.2809130000000002E-4</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1.3431369999999999E-5</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.770753E-4</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1.1672029999999999E-3</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.8146929999999999E-5</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>2.4214040000000001E-4</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1.3940490000000001E-3</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>2.7503409999999999E-5</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>3.8604139999999997E-4</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1.628467E-3</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>5.513084E-5</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>4.8619160000000001E-4</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1.84614E-3</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -3081,77 +3082,77 @@
       <c r="K20">
         <v>0.35551300000000002</v>
       </c>
-      <c r="L20">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M20">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="N20">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="O20">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P20">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="Q20">
-        <v>1.1E-5</v>
-      </c>
-      <c r="R20">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="S20">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="T20">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="U20">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="V20">
-        <v>1.1E-5</v>
-      </c>
-      <c r="W20">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="X20">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="Y20">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="Z20">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="AA20">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="AB20">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="AC20">
-        <v>2.8E-5</v>
-      </c>
-      <c r="AD20">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AE20">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="AF20">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="AG20">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="AH20">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="AI20">
-        <v>3.6999999999999998E-5</v>
+      <c r="L20" s="1">
+        <v>9.9177289999999992E-7</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.252038E-6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5.2421409999999998E-6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.210982E-6</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4.7175969999999997E-6</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.06724E-5</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1.9491289999999999E-6</v>
+      </c>
+      <c r="S20" s="1">
+        <v>7.635054E-6</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1.6068719999999999E-5</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3.5233530000000002E-6</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1.1293279999999999E-5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2.0680620000000001E-5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>5.8864320000000001E-6</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1.604166E-5</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.456094E-5</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>9.1270810000000008E-6</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>2.2468489999999999E-5</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>2.7503409999999999E-5</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1.6081019999999999E-5</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>3.0882890000000001E-5</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>3.026792E-5</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>2.600492E-5</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>4.2279659999999998E-5</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>3.6958980000000002E-5</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
@@ -3190,77 +3191,77 @@
       <c r="K21">
         <v>0.56257100000000004</v>
       </c>
-      <c r="L21">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M21">
-        <v>1.2E-5</v>
-      </c>
-      <c r="N21">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="O21">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P21">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="Q21">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="R21">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="S21">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="T21">
-        <v>1.9699999999999999E-4</v>
-      </c>
-      <c r="U21">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="V21">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="W21">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="X21">
-        <v>1.2E-5</v>
-      </c>
-      <c r="Y21">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="Z21">
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="AA21">
-        <v>1.7E-5</v>
-      </c>
-      <c r="AB21">
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="AC21">
-        <v>3.86E-4</v>
-      </c>
-      <c r="AD21">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="AE21">
-        <v>2.43E-4</v>
-      </c>
-      <c r="AF21">
-        <v>4.7600000000000002E-4</v>
-      </c>
-      <c r="AG21">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="AH21">
-        <v>3.3100000000000002E-4</v>
-      </c>
-      <c r="AI21">
-        <v>5.9000000000000003E-4</v>
+      <c r="L21" s="1">
+        <v>1.9810650000000001E-6</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.24694E-5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>6.2010050000000001E-5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4.1596629999999998E-6</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2.582959E-5</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.308188E-4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3.3960319999999998E-6</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4.2397449999999998E-5</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.96682E-4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>6.6479159999999999E-6</v>
+      </c>
+      <c r="V21" s="1">
+        <v>6.4384379999999998E-5</v>
+      </c>
+      <c r="W21" s="1">
+        <v>2.600352E-4</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1.158463E-5</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>9.4897100000000003E-5</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>3.1975580000000002E-4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1.7354210000000001E-5</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1.396131E-4</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>3.8604139999999997E-4</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>3.0882890000000001E-5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>2.428253E-4</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>4.7627820000000002E-4</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>5.9192369999999997E-5</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>3.3146919999999999E-4</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>5.901255E-4</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -3299,77 +3300,77 @@
       <c r="K22">
         <v>0.54084200000000004</v>
       </c>
-      <c r="L22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M22">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="N22">
-        <v>2.04E-4</v>
-      </c>
-      <c r="O22">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P22">
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="Q22">
-        <v>4.4099999999999999E-4</v>
-      </c>
-      <c r="R22">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="S22">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="T22">
-        <v>6.9099999999999999E-4</v>
-      </c>
-      <c r="U22">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="V22">
-        <v>1.22E-4</v>
-      </c>
-      <c r="W22">
-        <v>9.6500000000000004E-4</v>
-      </c>
-      <c r="X22">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="Y22">
-        <v>1.8599999999999999E-4</v>
-      </c>
-      <c r="Z22">
-        <v>1.2639999999999999E-3</v>
-      </c>
-      <c r="AA22">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AB22">
-        <v>2.7300000000000002E-4</v>
-      </c>
-      <c r="AC22">
-        <v>1.6280000000000001E-3</v>
-      </c>
-      <c r="AD22">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="AE22">
-        <v>4.7600000000000002E-4</v>
-      </c>
-      <c r="AF22">
-        <v>2.1280000000000001E-3</v>
-      </c>
-      <c r="AG22">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="AH22">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="AI22">
-        <v>2.7130000000000001E-3</v>
+      <c r="L22" s="1">
+        <v>1.253685E-6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.0933920000000001E-5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2.0405360000000001E-4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3.2754419999999999E-6</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4.402947E-5</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4.4057619999999999E-4</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2.8460349999999998E-6</v>
+      </c>
+      <c r="S22" s="1">
+        <v>7.5695290000000006E-5</v>
+      </c>
+      <c r="T22" s="1">
+        <v>6.9138589999999996E-4</v>
+      </c>
+      <c r="U22" s="1">
+        <v>6.200485E-6</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1.215641E-4</v>
+      </c>
+      <c r="W22" s="1">
+        <v>9.6536270000000001E-4</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1.295172E-5</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1.8593470000000001E-4</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1.264156E-3</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1.8980979999999999E-5</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>2.7347109999999999E-4</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1.628467E-3</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>3.026792E-5</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>4.7627820000000002E-4</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>2.1279189999999998E-3</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>6.1995910000000001E-5</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>6.4958289999999998E-4</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>2.7127330000000002E-3</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -3408,77 +3409,77 @@
       <c r="K23">
         <v>0.40898200000000001</v>
       </c>
-      <c r="L23">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="M23">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="N23">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="O23">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P23">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Q23">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="R23">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="S23">
-        <v>1.1E-5</v>
-      </c>
-      <c r="T23">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="U23">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="V23">
-        <v>1.7E-5</v>
-      </c>
-      <c r="W23">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="X23">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="Y23">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="Z23">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="AA23">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AB23">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="AC23">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="AD23">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="AE23">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="AF23">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="AG23">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="AH23">
-        <v>9.2E-5</v>
-      </c>
-      <c r="AI23">
-        <v>7.7999999999999999E-5</v>
+      <c r="L23" s="1">
+        <v>1.2853340000000001E-6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3.4080100000000001E-6</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.0131159999999999E-5</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2.895935E-6</v>
+      </c>
+      <c r="P23" s="1">
+        <v>7.0737569999999998E-6</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2.0612919999999998E-5</v>
+      </c>
+      <c r="R23" s="1">
+        <v>2.5290299999999998E-6</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.141909E-5</v>
+      </c>
+      <c r="T23" s="1">
+        <v>3.0854790000000001E-5</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4.6473119999999999E-6</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1.6843839999999999E-5</v>
+      </c>
+      <c r="W23" s="1">
+        <v>3.9818340000000001E-5</v>
+      </c>
+      <c r="X23" s="1">
+        <v>8.0852849999999993E-6</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>2.4496920000000001E-5</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>4.7816260000000002E-5</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1.3281589999999999E-5</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>3.6487479999999998E-5</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>5.513084E-5</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>2.600492E-5</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>5.9192369999999997E-5</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>6.1995910000000001E-5</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>4.9694149999999999E-5</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>9.2412350000000006E-5</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>7.8467120000000001E-5</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
@@ -3517,77 +3518,77 @@
       <c r="K24">
         <v>0.58675999999999995</v>
       </c>
-      <c r="L24">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M24">
-        <v>1.4E-5</v>
-      </c>
-      <c r="N24">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="O24">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P24">
-        <v>2.9E-5</v>
-      </c>
-      <c r="Q24">
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="R24">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="S24">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="T24">
-        <v>2.2800000000000001E-4</v>
-      </c>
-      <c r="U24">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="V24">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="W24">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="X24">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="Y24">
-        <v>1.1E-4</v>
-      </c>
-      <c r="Z24">
-        <v>3.8299999999999999E-4</v>
-      </c>
-      <c r="AA24">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AB24">
-        <v>1.73E-4</v>
-      </c>
-      <c r="AC24">
-        <v>4.86E-4</v>
-      </c>
-      <c r="AD24">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="AE24">
-        <v>3.3100000000000002E-4</v>
-      </c>
-      <c r="AF24">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="AG24">
-        <v>9.2E-5</v>
-      </c>
-      <c r="AH24">
-        <v>5.1800000000000001E-4</v>
-      </c>
-      <c r="AI24">
-        <v>8.8900000000000003E-4</v>
+      <c r="L24" s="1">
+        <v>1.983312E-6</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.385107E-5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>7.1894860000000006E-5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4.2548819999999996E-6</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2.8848520000000001E-5</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1.5132049999999999E-4</v>
+      </c>
+      <c r="R24" s="1">
+        <v>3.402491E-6</v>
+      </c>
+      <c r="S24" s="1">
+        <v>4.7227369999999999E-5</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2.2792609999999999E-4</v>
+      </c>
+      <c r="U24" s="1">
+        <v>7.0867630000000001E-6</v>
+      </c>
+      <c r="V24" s="1">
+        <v>7.2390210000000004E-5</v>
+      </c>
+      <c r="W24" s="1">
+        <v>3.0501319999999999E-4</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1.313931E-5</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1.098884E-4</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>3.8315929999999999E-4</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>2.1230739999999999E-5</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1.7265889999999999E-4</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>4.8619160000000001E-4</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>4.2279659999999998E-5</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>3.3146919999999999E-4</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>6.4958289999999998E-4</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>9.2412350000000006E-5</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>5.1831329999999995E-4</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>8.8871399999999998E-4</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -3626,77 +3627,77 @@
       <c r="K25">
         <v>0.47054600000000002</v>
       </c>
-      <c r="L25">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="M25">
-        <v>1.8E-5</v>
-      </c>
-      <c r="N25">
-        <v>1.9799999999999999E-4</v>
-      </c>
-      <c r="O25">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P25">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="Q25">
-        <v>4.2900000000000002E-4</v>
-      </c>
-      <c r="R25">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="S25">
-        <v>6.8999999999999997E-5</v>
-      </c>
-      <c r="T25">
-        <v>6.8400000000000004E-4</v>
-      </c>
-      <c r="U25">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="V25">
-        <v>1.18E-4</v>
-      </c>
-      <c r="W25">
-        <v>9.8499999999999998E-4</v>
-      </c>
-      <c r="X25">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="Y25">
-        <v>1.9100000000000001E-4</v>
-      </c>
-      <c r="Z25">
-        <v>1.3359999999999999E-3</v>
-      </c>
-      <c r="AA25">
-        <v>2.4000000000000001E-5</v>
-      </c>
-      <c r="AB25">
-        <v>3.01E-4</v>
-      </c>
-      <c r="AC25">
-        <v>1.846E-3</v>
-      </c>
-      <c r="AD25">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="AE25">
-        <v>5.9000000000000003E-4</v>
-      </c>
-      <c r="AF25">
-        <v>2.7130000000000001E-3</v>
-      </c>
-      <c r="AG25">
-        <v>7.7999999999999999E-5</v>
-      </c>
-      <c r="AH25">
-        <v>8.8900000000000003E-4</v>
-      </c>
-      <c r="AI25">
-        <v>4.1949999999999999E-3</v>
+      <c r="L25" s="1">
+        <v>1.760043E-6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.7749339999999999E-5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.975092E-4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4.4789480000000001E-6</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3.8627449999999999E-5</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>4.2869579999999999E-4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2.177973E-6</v>
+      </c>
+      <c r="S25" s="1">
+        <v>6.8631899999999996E-5</v>
+      </c>
+      <c r="T25" s="1">
+        <v>6.8351939999999997E-4</v>
+      </c>
+      <c r="U25" s="1">
+        <v>6.6892850000000003E-6</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1.18316E-4</v>
+      </c>
+      <c r="W25" s="1">
+        <v>9.8547739999999993E-4</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1.6070469999999999E-5</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1.9094739999999999E-4</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1.3355190000000001E-3</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>2.44307E-5</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>3.0135220000000002E-4</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1.84614E-3</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>3.6958980000000002E-5</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>5.901255E-4</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>2.7127330000000002E-3</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>7.8467120000000001E-5</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>8.8871399999999998E-4</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>4.1952150000000004E-3</v>
       </c>
     </row>
   </sheetData>
